--- a/Results/Final Results/Samples/900Scen/Results_Sample900_01.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D350CF-C97D-4190-AAAD-1EF88DDC9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07615498-A410-4275-BBA4-03134B47B1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G85">
         <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[LB Heuristic]])/TestingFile3[[#This Row],[Obj. LR]]</f>
-        <v>0</v>
+        <v>2.8188421799826491E-2</v>
       </c>
       <c r="H85">
         <v>5.9369999999999999E-2</v>
@@ -4785,16 +4785,17 @@
         <v>250.66625999999999</v>
       </c>
       <c r="J85">
-        <v>246.43198000000001</v>
+        <v>253.58</v>
       </c>
       <c r="K85">
-        <v>-1.7180000000000001E-2</v>
+        <f>(TestingFile3[[#This Row],[Obj. LR]]-TestingFile3[[#This Row],[Obj. Naive]])/TestingFile3[[#This Row],[Obj. LR]]</f>
+        <v>1.14904172253333E-2</v>
       </c>
       <c r="L85">
         <v>4358</v>
       </c>
       <c r="M85">
-        <v>2109</v>
+        <v>988</v>
       </c>
       <c r="N85">
         <v>0.78113999999999995</v>
